--- a/catalogos/beraldin/Tabela PreÁos Emp. Beraldin MarÁo_2014.xlsx
+++ b/catalogos/beraldin/Tabela PreÁos Emp. Beraldin MarÁo_2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="21960" windowHeight="13560" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="25320" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Seda TC" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="700">
   <si>
     <t>SE-024/002</t>
   </si>
@@ -2110,6 +2110,27 @@
   </si>
   <si>
     <t>PE-704/141</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>395</t>
   </si>
 </sst>
 </file>
@@ -2553,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C64" sqref="A63:C64"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3246,6 +3267,171 @@
       </c>
       <c r="C62" s="3">
         <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
